--- a/biology/Botanique/Grassette_à_grandes_fleurs/Grassette_à_grandes_fleurs.xlsx
+++ b/biology/Botanique/Grassette_à_grandes_fleurs/Grassette_à_grandes_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grassette_%C3%A0_grandes_fleurs</t>
+          <t>Grassette_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinguicula grandiflora
 La grassette à grandes fleurs (Pinguicula grandiflora Lam.) est une plante herbacée vivace de la famille des Lentibulariacées appartenant au genre Pinguicula (les grassettes).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grassette_%C3%A0_grandes_fleurs</t>
+          <t>Grassette_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grassette à grandes fleurs possède des feuilles vert tendre, oblongues, munies de poils glanduleux.
 Les fleurs font 3 à 5 cm de long, sont zygomorphes et ont une palette de couleurs assez variée. En général bleu soutenu, elle peut être bleu pâle chez Pinguicula grandiflora subsp. grandiflora f. pallida ou rose chez Pinguicula grandiflora subsp. rosea (Mutel) Casper. Des individus à fleurs complètement blanches décrits sous le nom de Pinguicula grandiflora subsp. grandiflora f. chionopetra existent dans une population d'Irlande ainsi que près de Barèges dans les Pyrénées françaises, ou de façon isolée, au Pays Basque.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grassette_%C3%A0_grandes_fleurs</t>
+          <t>Grassette_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de montagne qui apprécie les terrains très humides et les sols tourbeux, les pâturages et rochers humides des hautes montagnes.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grassette_%C3%A0_grandes_fleurs</t>
+          <t>Grassette_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les prairies des montagnes pyrénéennes en France, en Andorre et en Espagne et jusqu'aux Corbières catalanes[1] mais aussi en Irlande, dans le Jura en France et en Suisse, dans le Bugey, dans les Alpes en France (Alpes de la Savoie et de la Haute Savoie (Glières, Col du Cable), du Dauphiné, de la Provence) et en Italie, ainsi que dans le Massif central.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les prairies des montagnes pyrénéennes en France, en Andorre et en Espagne et jusqu'aux Corbières catalanes mais aussi en Irlande, dans le Jura en France et en Suisse, dans le Bugey, dans les Alpes en France (Alpes de la Savoie et de la Haute Savoie (Glières, Col du Cable), du Dauphiné, de la Provence) et en Italie, ainsi que dans le Massif central.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grassette_%C3%A0_grandes_fleurs</t>
+          <t>Grassette_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Parasites et maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mulots, pucerons, botrytis, vers gris, escargots, limaces. Cependant, c'est probablement la plus facile à cultiver des espèces européennes.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grassette_%C3%A0_grandes_fleurs</t>
+          <t>Grassette_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En dehors des Pyrénées où elle est abondante, cette espèce relativement rare est protégée en France. Elle figure en effet sur les arrêtés de protection régionaux des régions Auvergne, Rhône-Alpes et Franche-Comté (Article 1).
 </t>
